--- a/May 2021.xlsx
+++ b/May 2021.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\witeo\Documents\Ban Xin Construction\workersalary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2F001C-0A08-4427-B6F5-2BADA635E485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="55 Lentor Way" sheetId="1" r:id="rId1"/>
@@ -12,13 +18,14 @@
     <sheet name="56 Mount Sinai Drive" sheetId="3" r:id="rId3"/>
     <sheet name="26 Choi Tiong Ham Park" sheetId="4" r:id="rId4"/>
     <sheet name="31 Kampong Chantek" sheetId="5" r:id="rId5"/>
+    <sheet name="Individual Summary" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="29">
   <si>
     <t>Names</t>
   </si>
@@ -110,8 +117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +181,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -220,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,9 +267,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,6 +319,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,14 +512,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="33" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -691,7 +754,7 @@
         <v>799.875</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -804,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -917,7 +980,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1030,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1143,7 +1206,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1256,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1369,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1482,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1595,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1708,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1821,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1934,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2047,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2160,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2273,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2386,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2499,7 +2562,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2612,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2725,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2838,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2951,7 +3014,7 @@
         <v>153.1875</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3064,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3177,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3296,14 +3359,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="33" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3413,7 +3487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3526,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3639,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3752,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3865,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3978,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4091,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4204,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4317,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4430,7 +4504,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4543,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4656,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4769,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4882,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4995,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5108,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5221,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5334,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5447,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5560,7 +5634,7 @@
         <v>50.75</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5673,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5786,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5899,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6012,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6131,14 +6205,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="33" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6248,7 +6334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6361,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6474,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6587,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6700,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6813,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6926,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7039,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7152,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7265,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7378,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7491,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7604,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7717,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7830,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7943,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8056,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8169,7 +8255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8282,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8395,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8508,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8621,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8734,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8847,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8966,14 +9052,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="33" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9083,7 +9180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9196,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9309,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9422,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9535,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -9648,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -9761,7 +9858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -9874,7 +9971,7 @@
         <v>126.75</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -9987,7 +10084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10100,7 +10197,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10213,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -10326,7 +10423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -10439,7 +10536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10552,7 +10649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10665,7 +10762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10778,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10891,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -11004,7 +11101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -11117,7 +11214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -11230,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -11343,7 +11440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -11456,7 +11553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -11569,7 +11666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -11682,7 +11779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -11801,14 +11898,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="33" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11918,7 +12027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -12031,7 +12140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12144,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -12257,7 +12366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12370,7 +12479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -12483,7 +12592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12596,7 +12705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12709,7 +12818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12822,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12935,7 +13044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -13048,7 +13157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -13161,7 +13270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -13274,7 +13383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -13387,7 +13496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -13500,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -13613,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -13726,7 +13835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -13839,7 +13948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -13952,7 +14061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -14065,7 +14174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -14178,7 +14287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -14291,7 +14400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -14404,7 +14513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -14517,7 +14626,2854 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>14</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AK25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="33" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>8</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>8</v>
+      </c>
+      <c r="Q2">
+        <v>8</v>
+      </c>
+      <c r="R2">
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2">
+        <v>8</v>
+      </c>
+      <c r="U2">
+        <v>8</v>
+      </c>
+      <c r="V2">
+        <v>8</v>
+      </c>
+      <c r="W2">
+        <v>8</v>
+      </c>
+      <c r="X2">
+        <v>8</v>
+      </c>
+      <c r="Y2">
+        <v>8</v>
+      </c>
+      <c r="Z2">
+        <v>8</v>
+      </c>
+      <c r="AA2">
+        <v>8</v>
+      </c>
+      <c r="AB2">
+        <v>8</v>
+      </c>
+      <c r="AC2">
+        <v>8</v>
+      </c>
+      <c r="AD2">
+        <v>8</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>3.375</v>
+      </c>
+      <c r="AI2">
+        <v>144</v>
+      </c>
+      <c r="AJ2">
+        <v>486</v>
+      </c>
+      <c r="AK2">
+        <v>799.875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <v>4</v>
+      </c>
+      <c r="X3">
+        <v>5</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>4</v>
+      </c>
+      <c r="AA3">
+        <v>4</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>5</v>
+      </c>
+      <c r="AD3">
+        <v>5</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>5.0625</v>
+      </c>
+      <c r="AI3">
+        <v>62</v>
+      </c>
+      <c r="AJ3">
+        <v>313.875</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>8</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>3</v>
+      </c>
+      <c r="AI4">
+        <v>32</v>
+      </c>
+      <c r="AJ4">
+        <v>96</v>
+      </c>
+      <c r="AK4">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>4.5</v>
+      </c>
+      <c r="AI5">
+        <v>17</v>
+      </c>
+      <c r="AJ5">
+        <v>76.5</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>2.75</v>
+      </c>
+      <c r="AI6">
+        <v>16</v>
+      </c>
+      <c r="AJ6">
+        <v>44</v>
+      </c>
+      <c r="AK6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>4.125</v>
+      </c>
+      <c r="AI7">
+        <v>8</v>
+      </c>
+      <c r="AJ7">
+        <v>33</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>3.25</v>
+      </c>
+      <c r="AI8">
+        <v>24</v>
+      </c>
+      <c r="AJ8">
+        <v>78</v>
+      </c>
+      <c r="AK8">
+        <v>126.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>4.875</v>
+      </c>
+      <c r="AI9">
+        <v>10</v>
+      </c>
+      <c r="AJ9">
+        <v>48.75</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="W10">
+        <v>8</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>3</v>
+      </c>
+      <c r="AI10">
+        <v>48</v>
+      </c>
+      <c r="AJ10">
+        <v>144</v>
+      </c>
+      <c r="AK10">
+        <v>238.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>4.5</v>
+      </c>
+      <c r="AI11">
+        <v>21</v>
+      </c>
+      <c r="AJ11">
+        <v>94.5</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>4.375</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>6.5625</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>2.75</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>4.125</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>2.75</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>4.125</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18">
+        <v>8</v>
+      </c>
+      <c r="N18">
+        <v>8</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>8</v>
+      </c>
+      <c r="Q18">
+        <v>8</v>
+      </c>
+      <c r="R18">
+        <v>8</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>8</v>
+      </c>
+      <c r="U18">
+        <v>8</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>8</v>
+      </c>
+      <c r="Y18">
+        <v>8</v>
+      </c>
+      <c r="Z18">
+        <v>8</v>
+      </c>
+      <c r="AA18">
+        <v>8</v>
+      </c>
+      <c r="AB18">
+        <v>8</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>5</v>
+      </c>
+      <c r="AI18">
+        <v>104</v>
+      </c>
+      <c r="AJ18">
+        <v>520</v>
+      </c>
+      <c r="AK18">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>5</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>5</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>4</v>
+      </c>
+      <c r="AA19">
+        <v>4</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>7.5</v>
+      </c>
+      <c r="AI19">
+        <v>38</v>
+      </c>
+      <c r="AJ19">
+        <v>285</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>3.625</v>
+      </c>
+      <c r="AI20">
+        <v>8</v>
+      </c>
+      <c r="AJ20">
+        <v>29</v>
+      </c>
+      <c r="AK20">
+        <v>50.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>5.4375</v>
+      </c>
+      <c r="AI21">
+        <v>4</v>
+      </c>
+      <c r="AJ21">
+        <v>21.75</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>8</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>2.375</v>
+      </c>
+      <c r="AI22">
+        <v>36</v>
+      </c>
+      <c r="AJ22">
+        <v>85.5</v>
+      </c>
+      <c r="AK22">
+        <v>153.1875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>3.5625</v>
+      </c>
+      <c r="AI23">
+        <v>19</v>
+      </c>
+      <c r="AJ23">
+        <v>67.6875</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>11</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
